--- a/week-3/labor-force-drill-start.xlsx
+++ b/week-3/labor-force-drill-start.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
   <si>
     <t>Civilian
 noninsti-
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.bls.gov/cps/cpsa2018.pdf </t>
+  </si>
+  <si>
+    <t>1. Compare the percent of men and women in the workforce, in total, before and after 1990 (not for each year).</t>
+  </si>
+  <si>
+    <t>2. Compare the trend of men versus women in the workforce for each year available in the data.</t>
+  </si>
+  <si>
+    <t>3. Plot the percent of the workforce that was employed in agriculture for each year available in the data.</t>
+  </si>
+  <si>
+    <t>4. Plot the total number of employed, unemployed, and not in labor force.</t>
   </si>
 </sst>
 </file>
@@ -414,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,6 +443,26 @@
       </c>
       <c r="B1" s="9" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -445,7 +477,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
